--- a/21D项目/03财务资料/03支出凭证2018/181017/181017明细.xlsx
+++ b/21D项目/03财务资料/03支出凭证2018/181017/181017明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,11 +81,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>封面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多种文具物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个剧本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +443,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -446,7 +454,7 @@
     <row r="1" spans="1:3">
       <c r="B1">
         <f>SUM(B2:B99)</f>
-        <v>1280.73</v>
+        <v>1361.18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -457,23 +465,26 @@
         <v>44.6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>112.05</v>
+        <v>112.5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -481,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>124.08</v>
+        <v>204.08</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -493,6 +504,9 @@
       </c>
       <c r="B6">
         <v>1000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
